--- a/image/detectedissue.xlsx
+++ b/image/detectedissue.xlsx
@@ -907,45 +907,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="166.8203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.08984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="167.14453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.46875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="105.390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.5234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="104.07421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.75390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/detectedissue.xlsx
+++ b/image/detectedissue.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="240">
   <si>
     <t>Path</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -595,10 +595,6 @@
   </si>
   <si>
     <t>DetectedIssue.evidence.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -907,45 +903,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.5234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="167.14453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.46875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="166.8203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.08984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="104.07421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.75390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="105.390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.5234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3080,13 +3076,13 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3137,7 +3133,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3158,7 +3154,7 @@
         <v>43</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>43</v>
@@ -3166,7 +3162,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3195,7 +3191,7 @@
         <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>99</v>
@@ -3248,7 +3244,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3269,7 +3265,7 @@
         <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3277,11 +3273,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3303,10 +3299,10 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>99</v>
@@ -3361,7 +3357,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3390,7 +3386,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3416,10 +3412,10 @@
         <v>127</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3446,14 +3442,14 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
       </c>
@@ -3470,7 +3466,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3499,7 +3495,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3525,10 +3521,10 @@
         <v>173</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3579,7 +3575,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3608,7 +3604,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3631,16 +3627,16 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3690,7 +3686,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3705,13 +3701,13 @@
         <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -3719,7 +3715,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3745,10 +3741,10 @@
         <v>64</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3799,7 +3795,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3820,7 +3816,7 @@
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -3828,7 +3824,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3854,10 +3850,10 @@
         <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3908,7 +3904,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3929,7 +3925,7 @@
         <v>43</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -3937,7 +3933,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3960,13 +3956,13 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4017,7 +4013,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4038,7 +4034,7 @@
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4046,7 +4042,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4075,7 +4071,7 @@
         <v>97</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>99</v>
@@ -4128,7 +4124,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4149,7 +4145,7 @@
         <v>43</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4157,11 +4153,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4183,10 +4179,10 @@
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>99</v>
@@ -4241,7 +4237,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4270,7 +4266,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4296,13 +4292,13 @@
         <v>127</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4331,11 +4327,11 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4352,7 +4348,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>51</v>
@@ -4381,7 +4377,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4404,16 +4400,16 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4463,7 +4459,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4492,7 +4488,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4515,13 +4511,13 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4572,7 +4568,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
